--- a/Allianz Technology User List.xlsx
+++ b/Allianz Technology User List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudthat365-my.sharepoint.com/personal/ninads_cloudthat_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NinadSamudre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{DD1654BA-25FC-4BE5-B0B3-A275C1AFCEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D88123A-2058-4775-848F-AB0FDECE54B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A9BFE-AB47-4DFE-A9FC-EE8D6934054D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CC99BD9-56E5-4172-AF43-9720D7FD02EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>ap-south-1</t>
+  </si>
+  <si>
+    <t>https://149536473293.signin.aws.amazon.com/console</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -569,12 +572,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +580,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,7 +596,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,15 +607,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,7 +946,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,7 +960,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -983,7 +980,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -992,7 +989,7 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1003,7 +1000,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1012,14 +1009,14 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1028,14 +1025,14 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1044,14 +1041,14 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1060,7 +1057,7 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1069,7 +1066,7 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1078,14 +1075,14 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1094,14 +1091,14 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1117,7 +1114,7 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1126,7 +1123,7 @@
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1135,7 +1132,7 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1144,14 +1141,14 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1160,14 +1157,14 @@
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1183,7 +1180,7 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1192,7 +1189,7 @@
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1201,7 +1198,7 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1210,14 +1207,14 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1226,14 +1223,14 @@
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="4" t="s">
         <v>98</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1249,7 +1246,7 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1258,7 +1255,7 @@
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1267,7 +1264,7 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1276,14 +1273,14 @@
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1292,14 +1289,14 @@
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1315,7 +1312,7 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1324,7 +1321,7 @@
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1333,7 +1330,7 @@
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1342,14 +1339,14 @@
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1358,14 +1355,14 @@
       <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="4" t="s">
         <v>104</v>
       </c>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1381,7 +1378,7 @@
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1390,7 +1387,7 @@
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1399,7 +1396,7 @@
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1408,14 +1405,14 @@
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1424,14 +1421,14 @@
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="4" t="s">
         <v>109</v>
       </c>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1447,7 +1444,7 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1456,14 +1453,16 @@
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="E30" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1472,14 +1471,14 @@
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1488,14 +1487,14 @@
       <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1504,14 +1503,14 @@
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1520,11 +1519,11 @@
       <c r="C34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1580,6 +1579,7 @@
     <hyperlink ref="D22" r:id="rId39" xr:uid="{DE29750D-F096-4883-A61F-09CB68EC9E30}"/>
     <hyperlink ref="F2" r:id="rId40" xr:uid="{EAD847FC-B462-41DF-B587-9407FFBA80F8}"/>
     <hyperlink ref="D26" r:id="rId41" xr:uid="{DBFB5704-942F-4EFD-9053-C66A67A7B8DD}"/>
+    <hyperlink ref="D30" r:id="rId42" xr:uid="{727FBD84-E0B8-4E1A-9922-06BDAE458104}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
